--- a/assets/feedbackFiles/feedbacks.xlsx
+++ b/assets/feedbackFiles/feedbacks.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -512,10 +512,38 @@
         <v>2021-10-26 20:05:30</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>胡晨明</v>
+      </c>
+      <c r="B10" t="str">
+        <v>2392859135@qq.com</v>
+      </c>
+      <c r="C10" t="str">
+        <v>可以</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2022-02-19 14:31:49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>胡晨明</v>
+      </c>
+      <c r="B11" t="str">
+        <v>2392859135@qq.com</v>
+      </c>
+      <c r="C11" t="str">
+        <v>可以的</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2022-02-19 14:55:32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D11"/>
   </ignoredErrors>
 </worksheet>
 </file>
